--- a/main/main/作成資料（留置所）/作成資料20210712/準最適基底を含めた基底選出/Air/Air.xlsx
+++ b/main/main/作成資料（留置所）/作成資料20210712/準最適基底を含めた基底選出/Air/Air.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\septe\source\repos\main\main\main\作成資料（留置所）\作成資料20210712\準最適基底を含めた基底選出\Air\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46C855DA-CC89-488E-92B6-CBB6098B75B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{591767EF-CC65-4938-8326-18C40D5A839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="225" yWindow="225" windowWidth="28560" windowHeight="17175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ICA_limits_result1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ICA_Basis</t>
   </si>
@@ -66,20 +66,6 @@
     <t>With_Options</t>
   </si>
   <si>
-    <t>Step1（付加情報含む）</t>
-    <rPh sb="6" eb="11">
-      <t>フカジョウホウフク</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
-    <t>Step1（付加情報なし）</t>
-    <rPh sb="6" eb="10">
-      <t>フカジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="18"/>
-  </si>
-  <si>
     <t>Step2（基底0のみ）</t>
     <rPh sb="6" eb="8">
       <t>キテイ</t>
@@ -87,14 +73,54 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Step2（基底0＆１）</t>
+    <t>Step2(基底0＆1付加無し)</t>
     <rPh sb="6" eb="8">
       <t>キテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Step2（準最適含む選出）</t>
+    <t>Step2（基底0＆１付加あり）</t>
+    <rPh sb="6" eb="8">
+      <t>キテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Step2（最適付加あり）</t>
+    <rPh sb="6" eb="8">
+      <t>サイテキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Step2（最適付加無し）</t>
+    <rPh sb="6" eb="11">
+      <t>サイテキフカナ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DCT単独</t>
+    <rPh sb="3" eb="5">
+      <t>タンドク</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Step2（準最適含む付加あり）</t>
     <rPh sb="6" eb="9">
       <t>ジュンサイテキ</t>
     </rPh>
@@ -102,17 +128,58 @@
       <t>フク</t>
     </rPh>
     <rPh sb="11" eb="13">
-      <t>センシュツ</t>
+      <t>フカ</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>Step2（最適のみ選出）</t>
+    <t>Step1（付加あり）</t>
     <rPh sb="6" eb="8">
-      <t>サイテキ</t>
+      <t>フカ</t>
     </rPh>
-    <rPh sb="10" eb="12">
-      <t>センシュツ</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Step1（付加なし）</t>
+    <rPh sb="6" eb="8">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Step2（準最適含む付加無し）</t>
+    <rPh sb="6" eb="9">
+      <t>ジュンサイテキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>フカナ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>3の手法</t>
+    <rPh sb="2" eb="4">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4の手法</t>
+    <rPh sb="2" eb="4">
+      <t>シュホウ</t>
+    </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>4の手法（基底番号戻し）</t>
+    <rPh sb="2" eb="4">
+      <t>シュホウ</t>
+    </rPh>
+    <rPh sb="5" eb="10">
+      <t>キテイバンゴウモド</t>
     </rPh>
     <phoneticPr fontId="18"/>
   </si>
@@ -769,6 +836,3078 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.9586667693152557E-2"/>
+          <c:y val="2.9090734774745667E-2"/>
+          <c:w val="0.96011648414120565"/>
+          <c:h val="0.94094967332345214"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step2（準最適含む付加あり）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$K$7:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73662400000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63960799999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58196799999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51235299999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43635200000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33527800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22000500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$L$7:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.667694000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.576215999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.917819000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.162645000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.369544000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.104703000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.850397000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A95-4AED-8AAE-B8865922B4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$P$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step2（最適付加あり）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$P$19:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73686299999999993</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64018599999999992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58170100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51209299999999991</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43458299999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33539200000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22009199999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$Q$19:$Q$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.667417</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.575562000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.920352000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.163328</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.373066999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.103904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.843800999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6A95-4AED-8AAE-B8865922B4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step2（基底0＆１付加あり）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$J$19:$J$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.87348999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77078100000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.71305099999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66429300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.54868499999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42230800000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.35975699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$K$19:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.670846999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.584102999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.924807000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.170524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.386685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.125243000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.91188</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-6A95-4AED-8AAE-B8865922B4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$M$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step2(基底0＆1付加無し)</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$M$19:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.730958</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63373100000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.570519</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.49983300000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42259899999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.31814999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.20077899999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$K$19:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.670846999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.584102999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.924807000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.170524</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.386685</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.125243000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.91188</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-6A95-4AED-8AAE-B8865922B4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Step2（基底0のみ）</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$G$19:$G$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73315800000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.636772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57367100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50415300000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.42762100000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32335599999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.205013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$H$19:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.664815999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.571097999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.910359</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.149197000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.356196000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27.054155000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.781282999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-6A95-4AED-8AAE-B8865922B4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$Q$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DCT単独</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$B$7:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.73862399999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64371599999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58217699999999994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.51252299999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33562799999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22025900000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$Q$7:$Q$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>31.64545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30.542891000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.852875999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.085376</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.262195999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.851299999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24.315009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-6A95-4AED-8AAE-B8865922B4CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="594025472"/>
+        <c:axId val="594022560"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$G$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Step2（準最適含む付加無し）</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="square"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$J$7:$J$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.73114200000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.63412599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.57100399999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.50138899999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.42538800000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.318832</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.20355900000000002</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$L$7:$L$13</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>31.667694000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.576215999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29.917819000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.162645000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.369544000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>27.104703000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24.850397000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-6A95-4AED-8AAE-B8865922B4CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$S$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Step2（最適付加無し）</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent4"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="x"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$S$19:$S$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.73138099999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.63470399999999993</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.57073700000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.50112899999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.42361899999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.31894600000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.20364599999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$Q$19:$Q$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>31.667417</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.575562000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>29.920352000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.163328</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.373066999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>27.103904</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>24.843800999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000006-6A95-4AED-8AAE-B8865922B4CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="7"/>
+                <c:order val="7"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$A$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Step1（付加あり）</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="dot"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$A$19:$A$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1.1581809999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.031428</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.9517230000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.86652899999999988</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.78341799999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.68391000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.54830100000000004</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$B$19:$B$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>31.847306</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.808489000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30.168154000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.391791999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.597947000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>27.379569</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25.130168999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000A-6A95-4AED-8AAE-B8865922B4CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="8"/>
+                <c:order val="8"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$D$15</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Step1（付加なし）</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="dash"/>
+                  <c:size val="6"/>
+                  <c:spPr>
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent3">
+                          <a:lumMod val="60000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$D$19:$D$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.80733299999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.68058000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.60087500000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.51568099999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.43256999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.33306200000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.20841699999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>ICA_limits_result1!$E$19:$E$25</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>31.847306</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>30.808489000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30.168154000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>29.391791999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>28.597947000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>27.379569</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>25.130168999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000B-6A95-4AED-8AAE-B8865922B4CE}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="594025472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.9"/>
+          <c:min val="0.17"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594022560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="594022560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="32"/>
+          <c:min val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594025472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.68353102705453817"/>
+          <c:y val="0.61183964458116791"/>
+          <c:w val="0.30486579256510637"/>
+          <c:h val="0.34624580474713484"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.3259712623258336E-2"/>
+          <c:y val="1.8196856906534328E-2"/>
+          <c:w val="0.95875391121961273"/>
+          <c:h val="0.94342718326462294"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3の手法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$K$8:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63960799999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58196799999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51235299999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43635200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33527800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.22000500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$L$8:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.576215999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.917819000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.162645000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.369544000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.104703000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.850397000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6CE7-412F-8841-E4B8A9C7A47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ICA_limits_result1!$S$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4の手法</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$S$8:$S$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.63960799999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58138999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51235299999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.43635200000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.33527800000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21878800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ICA_limits_result1!$T$8:$T$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.576215999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29.920864000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.162645000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>28.369544000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.104703000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.85098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6CE7-412F-8841-E4B8A9C7A47C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1888092607"/>
+        <c:axId val="1888093439"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1888092607"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.65000000000000013"/>
+          <c:min val="0.2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888093439"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1888093439"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="31"/>
+          <c:min val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1888092607"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.7739718888850684"/>
+          <c:y val="0.70306038047973529"/>
+          <c:w val="0.20217752256950414"/>
+          <c:h val="0.25289514989286394"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="241">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01FDF5DE-FAC3-48DD-90D3-15CEDEB7AF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{632F5704-B5A3-4ADC-80A6-922CBAA3F787}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1066,15 +4205,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:O15"/>
+  <dimension ref="A2:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q19:Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1082,10 +4221,16 @@
         <v>5.4819999999999999E-3</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1116,8 +4261,17 @@
       <c r="K3" t="s">
         <v>10</v>
       </c>
+      <c r="Q3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>100</v>
       </c>
@@ -1150,6 +4304,9 @@
         <f t="shared" ref="K4:K13" si="1">(C4+D4+F4+$B$2*G4)</f>
         <v>3.7811209999999997</v>
       </c>
+      <c r="L4">
+        <v>49.542769999999997</v>
+      </c>
       <c r="M4">
         <f t="shared" ref="M4:M13" si="2">(B4-J4)</f>
         <v>1.7840000000002298E-3</v>
@@ -1158,8 +4315,23 @@
         <f t="shared" ref="O4:O13" si="3">(M4/$B$2)</f>
         <v>0.32542867566585731</v>
       </c>
+      <c r="Q4">
+        <v>49.541853000000003</v>
+      </c>
+      <c r="S4">
+        <v>3.7811209999999997</v>
+      </c>
+      <c r="T4">
+        <v>49.542769999999997</v>
+      </c>
+      <c r="V4">
+        <v>3.7811209999999997</v>
+      </c>
+      <c r="W4">
+        <v>49.542769999999997</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>90</v>
       </c>
@@ -1192,6 +4364,9 @@
         <f t="shared" si="1"/>
         <v>1.314719</v>
       </c>
+      <c r="L5">
+        <v>36.365549999999999</v>
+      </c>
       <c r="M5">
         <f t="shared" si="2"/>
         <v>3.2190000000000829E-3</v>
@@ -1200,8 +4375,23 @@
         <f t="shared" si="3"/>
         <v>0.58719445457863606</v>
       </c>
+      <c r="Q5">
+        <v>36.362422000000002</v>
+      </c>
+      <c r="S5">
+        <v>1.314719</v>
+      </c>
+      <c r="T5">
+        <v>36.365549999999999</v>
+      </c>
+      <c r="V5">
+        <v>1.314719</v>
+      </c>
+      <c r="W5">
+        <v>36.365549999999999</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>80</v>
       </c>
@@ -1234,6 +4424,9 @@
         <f t="shared" si="1"/>
         <v>0.87270000000000003</v>
       </c>
+      <c r="L6">
+        <v>33.265554999999999</v>
+      </c>
       <c r="M6">
         <f t="shared" si="2"/>
         <v>3.7209999999999743E-3</v>
@@ -1242,8 +4435,23 @@
         <f t="shared" si="3"/>
         <v>0.67876687340386255</v>
       </c>
+      <c r="Q6">
+        <v>33.254558000000003</v>
+      </c>
+      <c r="S6">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="T6">
+        <v>33.265554999999999</v>
+      </c>
+      <c r="V6">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="W6">
+        <v>33.265554999999999</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>70</v>
       </c>
@@ -1276,6 +4484,9 @@
         <f t="shared" si="1"/>
         <v>0.73662400000000006</v>
       </c>
+      <c r="L7">
+        <v>31.667694000000001</v>
+      </c>
       <c r="M7">
         <f t="shared" si="2"/>
         <v>7.4819999999998776E-3</v>
@@ -1284,8 +4495,23 @@
         <f t="shared" si="3"/>
         <v>1.364830353885421</v>
       </c>
+      <c r="Q7">
+        <v>31.64545</v>
+      </c>
+      <c r="S7">
+        <v>0.73662400000000006</v>
+      </c>
+      <c r="T7">
+        <v>31.667694000000001</v>
+      </c>
+      <c r="V7">
+        <v>0.73662400000000006</v>
+      </c>
+      <c r="W7">
+        <v>31.667694000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1318,6 +4544,9 @@
         <f t="shared" si="1"/>
         <v>0.63960799999999995</v>
       </c>
+      <c r="L8">
+        <v>30.576215999999999</v>
+      </c>
       <c r="M8">
         <f t="shared" si="2"/>
         <v>9.5899999999999874E-3</v>
@@ -1326,8 +4555,23 @@
         <f t="shared" si="3"/>
         <v>1.7493615468806982</v>
       </c>
+      <c r="Q8">
+        <v>30.542891000000001</v>
+      </c>
+      <c r="S8">
+        <v>0.63960799999999995</v>
+      </c>
+      <c r="T8">
+        <v>30.576215999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.63960799999999995</v>
+      </c>
+      <c r="W8">
+        <v>30.576215999999999</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>50</v>
       </c>
@@ -1360,6 +4604,9 @@
         <f t="shared" si="1"/>
         <v>0.58196799999999993</v>
       </c>
+      <c r="L9">
+        <v>29.917819000000001</v>
+      </c>
       <c r="M9">
         <f t="shared" si="2"/>
         <v>1.1172999999999988E-2</v>
@@ -1368,8 +4615,23 @@
         <f t="shared" si="3"/>
         <v>2.0381247719810269</v>
       </c>
+      <c r="Q9">
+        <v>29.852875999999998</v>
+      </c>
+      <c r="S9">
+        <v>0.58138999999999996</v>
+      </c>
+      <c r="T9">
+        <v>29.920864000000002</v>
+      </c>
+      <c r="V9">
+        <v>0.58138999999999996</v>
+      </c>
+      <c r="W9">
+        <v>29.920864000000002</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>40</v>
       </c>
@@ -1402,6 +4664,9 @@
         <f t="shared" si="1"/>
         <v>0.51235299999999995</v>
       </c>
+      <c r="L10">
+        <v>29.162645000000001</v>
+      </c>
       <c r="M10">
         <f t="shared" si="2"/>
         <v>1.1133999999999977E-2</v>
@@ -1410,8 +4675,23 @@
         <f t="shared" si="3"/>
         <v>2.0310105800802587</v>
       </c>
+      <c r="Q10">
+        <v>29.085376</v>
+      </c>
+      <c r="S10">
+        <v>0.51235299999999995</v>
+      </c>
+      <c r="T10">
+        <v>29.162645000000001</v>
+      </c>
+      <c r="V10">
+        <v>0.51176500000000003</v>
+      </c>
+      <c r="W10">
+        <v>29.164386</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>30</v>
       </c>
@@ -1444,6 +4724,9 @@
         <f t="shared" si="1"/>
         <v>0.43635200000000002</v>
       </c>
+      <c r="L11">
+        <v>28.369544000000001</v>
+      </c>
       <c r="M11">
         <f t="shared" si="2"/>
         <v>1.1941999999999953E-2</v>
@@ -1452,8 +4735,23 @@
         <f t="shared" si="3"/>
         <v>2.1784020430499731</v>
       </c>
+      <c r="Q11">
+        <v>28.262195999999999</v>
+      </c>
+      <c r="S11">
+        <v>0.43635200000000002</v>
+      </c>
+      <c r="T11">
+        <v>28.369544000000001</v>
+      </c>
+      <c r="V11">
+        <v>0.43421199999999993</v>
+      </c>
+      <c r="W11">
+        <v>28.373875999999999</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>20</v>
       </c>
@@ -1486,6 +4784,9 @@
         <f t="shared" si="1"/>
         <v>0.33527800000000002</v>
       </c>
+      <c r="L12">
+        <v>27.104703000000001</v>
+      </c>
       <c r="M12">
         <f t="shared" si="2"/>
         <v>1.6795999999999978E-2</v>
@@ -1494,8 +4795,23 @@
         <f t="shared" si="3"/>
         <v>3.0638453119299487</v>
       </c>
+      <c r="Q12">
+        <v>26.851299999999998</v>
+      </c>
+      <c r="S12">
+        <v>0.33527800000000002</v>
+      </c>
+      <c r="T12">
+        <v>27.104703000000001</v>
+      </c>
+      <c r="V12">
+        <v>0.33527800000000002</v>
+      </c>
+      <c r="W12">
+        <v>27.104703000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1528,6 +4844,9 @@
         <f t="shared" si="1"/>
         <v>0.22000500000000001</v>
       </c>
+      <c r="L13">
+        <v>24.850397000000001</v>
+      </c>
       <c r="M13">
         <f t="shared" si="2"/>
         <v>1.6699999999999993E-2</v>
@@ -1536,27 +4855,429 @@
         <f t="shared" si="3"/>
         <v>3.0463334549434502</v>
       </c>
+      <c r="Q13">
+        <v>24.315009</v>
+      </c>
+      <c r="S13">
+        <v>0.21878800000000001</v>
+      </c>
+      <c r="T13">
+        <v>24.85098</v>
+      </c>
+      <c r="V13">
+        <v>0.21966799999999997</v>
+      </c>
+      <c r="W13">
+        <v>24.846229000000001</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="D15" t="s">
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
         <v>12</v>
       </c>
-      <c r="G15" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" t="s">
+      <c r="P15" t="s">
         <v>14</v>
       </c>
-      <c r="M15" t="s">
-        <v>16</v>
+      <c r="S15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>4.3955419999999998</v>
+      </c>
+      <c r="B16">
+        <v>49.641857000000002</v>
+      </c>
+      <c r="D16">
+        <v>4.0446939999999998</v>
+      </c>
+      <c r="E16">
+        <v>49.641857000000002</v>
+      </c>
+      <c r="G16">
+        <v>3.7811209999999997</v>
+      </c>
+      <c r="H16">
+        <v>49.542769999999997</v>
+      </c>
+      <c r="J16">
+        <v>3.7859500000000001</v>
+      </c>
+      <c r="K16">
+        <v>49.542952999999997</v>
+      </c>
+      <c r="M16">
+        <v>3.7804679999999999</v>
+      </c>
+      <c r="P16">
+        <v>3.7811209999999997</v>
+      </c>
+      <c r="Q16">
+        <v>49.542769999999997</v>
+      </c>
+      <c r="S16">
+        <v>3.7811209999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1.8303100000000001</v>
+      </c>
+      <c r="B17">
+        <v>36.494841999999998</v>
+      </c>
+      <c r="D17">
+        <v>1.4794620000000001</v>
+      </c>
+      <c r="E17">
+        <v>36.494841999999998</v>
+      </c>
+      <c r="G17">
+        <v>1.314719</v>
+      </c>
+      <c r="H17">
+        <v>36.365549999999999</v>
+      </c>
+      <c r="J17">
+        <v>1.4010469999999999</v>
+      </c>
+      <c r="K17">
+        <v>36.366486000000002</v>
+      </c>
+      <c r="M17">
+        <v>1.3133349999999999</v>
+      </c>
+      <c r="P17">
+        <v>1.314719</v>
+      </c>
+      <c r="Q17">
+        <v>36.365549999999999</v>
+      </c>
+      <c r="S17">
+        <v>1.314719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>1.335221</v>
+      </c>
+      <c r="B18">
+        <v>33.427639999999997</v>
+      </c>
+      <c r="D18">
+        <v>0.98437299999999994</v>
+      </c>
+      <c r="E18">
+        <v>33.427639999999997</v>
+      </c>
+      <c r="G18">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="H18">
+        <v>33.265554999999999</v>
+      </c>
+      <c r="J18">
+        <v>0.98177999999999988</v>
+      </c>
+      <c r="K18">
+        <v>33.268450000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.87213999999999992</v>
+      </c>
+      <c r="P18">
+        <v>0.87270000000000003</v>
+      </c>
+      <c r="Q18">
+        <v>33.265554999999999</v>
+      </c>
+      <c r="S18">
+        <v>0.87270000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>1.1581809999999999</v>
+      </c>
+      <c r="B19">
+        <v>31.847306</v>
+      </c>
+      <c r="D19">
+        <v>0.80733299999999997</v>
+      </c>
+      <c r="E19">
+        <v>31.847306</v>
+      </c>
+      <c r="G19">
+        <v>0.73315800000000009</v>
+      </c>
+      <c r="H19">
+        <v>31.664815999999998</v>
+      </c>
+      <c r="J19">
+        <v>0.87348999999999999</v>
+      </c>
+      <c r="K19">
+        <v>31.670846999999998</v>
+      </c>
+      <c r="M19">
+        <v>0.730958</v>
+      </c>
+      <c r="P19">
+        <v>0.73686299999999993</v>
+      </c>
+      <c r="Q19">
+        <v>31.667417</v>
+      </c>
+      <c r="S19">
+        <v>0.73138099999999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1.031428</v>
+      </c>
+      <c r="B20">
+        <v>30.808489000000002</v>
+      </c>
+      <c r="D20">
+        <v>0.68058000000000007</v>
+      </c>
+      <c r="E20">
+        <v>30.808489000000002</v>
+      </c>
+      <c r="G20">
+        <v>0.636772</v>
+      </c>
+      <c r="H20">
+        <v>30.571097999999999</v>
+      </c>
+      <c r="J20">
+        <v>0.77078100000000005</v>
+      </c>
+      <c r="K20">
+        <v>30.584102999999999</v>
+      </c>
+      <c r="M20">
+        <v>0.63373100000000004</v>
+      </c>
+      <c r="P20">
+        <v>0.64018599999999992</v>
+      </c>
+      <c r="Q20">
+        <v>30.575562000000001</v>
+      </c>
+      <c r="S20">
+        <v>0.63470399999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>0.9517230000000001</v>
+      </c>
+      <c r="B21">
+        <v>30.168154000000001</v>
+      </c>
+      <c r="D21">
+        <v>0.60087500000000005</v>
+      </c>
+      <c r="E21">
+        <v>30.168154000000001</v>
+      </c>
+      <c r="G21">
+        <v>0.57367100000000004</v>
+      </c>
+      <c r="H21">
+        <v>29.910359</v>
+      </c>
+      <c r="J21">
+        <v>0.71305099999999999</v>
+      </c>
+      <c r="K21">
+        <v>29.924807000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.570519</v>
+      </c>
+      <c r="P21">
+        <v>0.58170100000000002</v>
+      </c>
+      <c r="Q21">
+        <v>29.920352000000001</v>
+      </c>
+      <c r="S21">
+        <v>0.57073700000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>0.86652899999999988</v>
+      </c>
+      <c r="B22">
+        <v>29.391791999999999</v>
+      </c>
+      <c r="D22">
+        <v>0.51568099999999994</v>
+      </c>
+      <c r="E22">
+        <v>29.391791999999999</v>
+      </c>
+      <c r="G22">
+        <v>0.50415300000000007</v>
+      </c>
+      <c r="H22">
+        <v>29.149197000000001</v>
+      </c>
+      <c r="J22">
+        <v>0.66429300000000002</v>
+      </c>
+      <c r="K22">
+        <v>29.170524</v>
+      </c>
+      <c r="M22">
+        <v>0.49983300000000003</v>
+      </c>
+      <c r="P22">
+        <v>0.51209299999999991</v>
+      </c>
+      <c r="Q22">
+        <v>29.163328</v>
+      </c>
+      <c r="S22">
+        <v>0.50112899999999994</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>0.78341799999999995</v>
+      </c>
+      <c r="B23">
+        <v>28.597947000000001</v>
+      </c>
+      <c r="D23">
+        <v>0.43256999999999995</v>
+      </c>
+      <c r="E23">
+        <v>28.597947000000001</v>
+      </c>
+      <c r="G23">
+        <v>0.42762100000000003</v>
+      </c>
+      <c r="H23">
+        <v>28.356196000000001</v>
+      </c>
+      <c r="J23">
+        <v>0.54868499999999998</v>
+      </c>
+      <c r="K23">
+        <v>28.386685</v>
+      </c>
+      <c r="M23">
+        <v>0.42259899999999995</v>
+      </c>
+      <c r="P23">
+        <v>0.43458299999999994</v>
+      </c>
+      <c r="Q23">
+        <v>28.373066999999999</v>
+      </c>
+      <c r="S23">
+        <v>0.42361899999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>0.68391000000000002</v>
+      </c>
+      <c r="B24">
+        <v>27.379569</v>
+      </c>
+      <c r="D24">
+        <v>0.33306200000000002</v>
+      </c>
+      <c r="E24">
+        <v>27.379569</v>
+      </c>
+      <c r="G24">
+        <v>0.32335599999999998</v>
+      </c>
+      <c r="H24">
+        <v>27.054155000000002</v>
+      </c>
+      <c r="J24">
+        <v>0.42230800000000002</v>
+      </c>
+      <c r="K24">
+        <v>27.125243000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.31814999999999999</v>
+      </c>
+      <c r="P24">
+        <v>0.33539200000000002</v>
+      </c>
+      <c r="Q24">
+        <v>27.103904</v>
+      </c>
+      <c r="S24">
+        <v>0.31894600000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>0.54830100000000004</v>
+      </c>
+      <c r="B25">
+        <v>25.130168999999999</v>
+      </c>
+      <c r="D25">
+        <v>0.20841699999999999</v>
+      </c>
+      <c r="E25">
+        <v>25.130168999999999</v>
+      </c>
+      <c r="G25">
+        <v>0.205013</v>
+      </c>
+      <c r="H25">
+        <v>24.781282999999998</v>
+      </c>
+      <c r="J25">
+        <v>0.35975699999999999</v>
+      </c>
+      <c r="K25">
+        <v>24.91188</v>
+      </c>
+      <c r="M25">
+        <v>0.20077899999999999</v>
+      </c>
+      <c r="P25">
+        <v>0.22009199999999998</v>
+      </c>
+      <c r="Q25">
+        <v>24.843800999999999</v>
+      </c>
+      <c r="S25">
+        <v>0.20364599999999999</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>